--- a/Bases_de_Dados/FootyStats/Norway Eliteserien_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Norway Eliteserien_2025.xlsx
@@ -41915,22 +41915,22 @@
         <v>2.58</v>
       </c>
       <c r="AU190" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV190" t="n">
         <v>5</v>
       </c>
       <c r="AW190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX190" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY190" t="n">
         <v>15</v>
       </c>
       <c r="AZ190" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA190" t="n">
         <v>7</v>
@@ -42360,13 +42360,13 @@
         <v>17</v>
       </c>
       <c r="AX192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY192" t="n">
         <v>22</v>
       </c>
       <c r="AZ192" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA192" t="n">
         <v>7</v>
@@ -44316,13 +44316,13 @@
         <v>5</v>
       </c>
       <c r="AV201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW201" t="n">
         <v>2</v>
       </c>
       <c r="AX201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY201" t="n">
         <v>7</v>
@@ -44540,13 +44540,13 @@
         <v>10</v>
       </c>
       <c r="AX202" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY202" t="n">
         <v>14</v>
       </c>
       <c r="AZ202" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA202" t="n">
         <v>7</v>
@@ -44961,10 +44961,10 @@
         <v>1.35</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT204" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="AU204" t="n">
         <v>5</v>
@@ -45194,13 +45194,13 @@
         <v>5</v>
       </c>
       <c r="AX205" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY205" t="n">
         <v>8</v>
       </c>
       <c r="AZ205" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA205" t="n">
         <v>3</v>
@@ -45833,10 +45833,10 @@
         <v>2.02</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AT208" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="AU208" t="n">
         <v>4</v>
@@ -46176,7 +46176,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>['32', '45+1', '47']</t>
+          <t>['32', '45+2', '47']</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -46269,10 +46269,10 @@
         <v>1.92</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AT210" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="AU210" t="n">
         <v>4</v>
@@ -46499,13 +46499,13 @@
         <v>4</v>
       </c>
       <c r="AW211" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX211" t="n">
         <v>6</v>
       </c>
       <c r="AY211" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ211" t="n">
         <v>10</v>
@@ -46720,13 +46720,13 @@
         <v>8</v>
       </c>
       <c r="AX212" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY212" t="n">
         <v>14</v>
       </c>
       <c r="AZ212" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA212" t="n">
         <v>7</v>
@@ -47141,10 +47141,10 @@
         <v>1.48</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AT214" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="AU214" t="n">
         <v>4</v>
@@ -47374,13 +47374,13 @@
         <v>9</v>
       </c>
       <c r="AX215" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY215" t="n">
         <v>14</v>
       </c>
       <c r="AZ215" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA215" t="n">
         <v>2</v>
@@ -47804,13 +47804,13 @@
         <v>7</v>
       </c>
       <c r="AV217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW217" t="n">
         <v>4</v>
       </c>
       <c r="AX217" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY217" t="n">
         <v>11</v>
@@ -48231,10 +48231,10 @@
         <v>2.06</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AT219" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="AU219" t="n">
         <v>5</v>
@@ -48900,13 +48900,13 @@
         <v>4</v>
       </c>
       <c r="AX222" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY222" t="n">
         <v>8</v>
       </c>
       <c r="AZ222" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA222" t="n">
         <v>3</v>
@@ -49103,10 +49103,10 @@
         <v>1.98</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT223" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU223" t="n">
         <v>3</v>
@@ -49321,10 +49321,10 @@
         <v>1.55</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="AU224" t="n">
         <v>1</v>
@@ -49554,13 +49554,13 @@
         <v>8</v>
       </c>
       <c r="AX225" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY225" t="n">
         <v>10</v>
       </c>
       <c r="AZ225" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA225" t="n">
         <v>5</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>['85', '86', '90']</t>
+          <t>['84', '86', '90']</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -50208,13 +50208,13 @@
         <v>8</v>
       </c>
       <c r="AX228" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY228" t="n">
         <v>13</v>
       </c>
       <c r="AZ228" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA228" t="n">
         <v>5</v>
@@ -50626,13 +50626,13 @@
         <v>1.53</v>
       </c>
       <c r="AR230" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AS230" t="n">
         <v>1.74</v>
       </c>
       <c r="AT230" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="AU230" t="n">
         <v>5</v>
@@ -50644,13 +50644,13 @@
         <v>4</v>
       </c>
       <c r="AX230" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY230" t="n">
         <v>9</v>
       </c>
       <c r="AZ230" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA230" t="n">
         <v>1</v>
@@ -51077,13 +51077,13 @@
         <v>2</v>
       </c>
       <c r="AW232" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX232" t="n">
         <v>8</v>
       </c>
       <c r="AY232" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ232" t="n">
         <v>10</v>
@@ -51719,10 +51719,10 @@
         <v>1.66</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU235" t="n">
         <v>11</v>
@@ -51937,10 +51937,10 @@
         <v>1.48</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AT236" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AU236" t="n">
         <v>3</v>
@@ -52155,10 +52155,10 @@
         <v>1.35</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AU237" t="n">
         <v>2</v>
@@ -52373,10 +52373,10 @@
         <v>1.92</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT238" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AU238" t="n">
         <v>8</v>
@@ -53027,10 +53027,10 @@
         <v>1.54</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU241" t="n">
         <v>4</v>
